--- a/Datasett/barnehager-gjesdal-kommune.xlsx
+++ b/Datasett/barnehager-gjesdal-kommune.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\oblig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="164">
   <si>
     <t>Barnehager i Gjesdal kommune</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Navn</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beskrivelse </t>
-  </si>
-  <si>
     <t>LinkHjemmeside</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
     <t>Husafjell barnehage</t>
   </si>
   <si>
-    <t>Åfaret 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>Denne er nedlagt og erstattet av Øygardsvatnet barnehage</t>
   </si>
   <si>
@@ -126,12 +114,6 @@
     <t>Flassabekken barnehage</t>
   </si>
   <si>
-    <t xml:space="preserve">Flassabekkveien 2 </t>
-  </si>
-  <si>
-    <t>4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t xml:space="preserve">51 61 48 50 </t>
   </si>
   <si>
@@ -159,9 +141,6 @@
     <t>Solås barnehage</t>
   </si>
   <si>
-    <t>Solåsveien 49</t>
-  </si>
-  <si>
     <t>http://www.gjesdal.kommune.no/Solas/</t>
   </si>
   <si>
@@ -189,9 +168,6 @@
     <t>Kodlidalen barnehage</t>
   </si>
   <si>
-    <t>Åfaret 33</t>
-  </si>
-  <si>
     <t>http://www.gjesdal.kommune.no/Kodlidalen/</t>
   </si>
   <si>
@@ -219,9 +195,6 @@
     <t>Fiskebekk barnehage</t>
   </si>
   <si>
-    <t>Fiskebekkveien 30</t>
-  </si>
-  <si>
     <t>http://www.minbarnehage.no/fiskebekk</t>
   </si>
   <si>
@@ -249,9 +222,6 @@
     <t>Rishagen RUS barnehage</t>
   </si>
   <si>
-    <t>Fiolveien 1</t>
-  </si>
-  <si>
     <t>https://rishagen.bhg.no/</t>
   </si>
   <si>
@@ -276,9 +246,6 @@
     <t>Bruhammaren FUS barnehage</t>
   </si>
   <si>
-    <t>Bruhammaren 4</t>
-  </si>
-  <si>
     <t>https://bruhammaren.bhg.no/</t>
   </si>
   <si>
@@ -309,9 +276,6 @@
     <t>Bamsebo barnehage</t>
   </si>
   <si>
-    <t>Skogveien 4C</t>
-  </si>
-  <si>
     <t>http://www.gjesdal.kommune.no/bamsebo</t>
   </si>
   <si>
@@ -339,9 +303,6 @@
     <t>Nesjane barnehage</t>
   </si>
   <si>
-    <t>Ånundskaret 98</t>
-  </si>
-  <si>
     <t>http://www.gjesdal.kommune.no/Nesjane/</t>
   </si>
   <si>
@@ -369,9 +330,6 @@
     <t>Bærland barnehage</t>
   </si>
   <si>
-    <t>Djupedalsveien 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">51 61 48 46 </t>
   </si>
   <si>
@@ -396,9 +354,6 @@
     <t>Kollberge familiebarnehage</t>
   </si>
   <si>
-    <t>Skurvegarden 67</t>
-  </si>
-  <si>
     <t>http://www.kollberge.barnehageside.no/</t>
   </si>
   <si>
@@ -426,12 +381,6 @@
     <t>Oltedal barnehage</t>
   </si>
   <si>
-    <t>Bygdaveien 54</t>
-  </si>
-  <si>
-    <t>4333 OLTEDAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">51 61 48 01 </t>
   </si>
   <si>
@@ -453,12 +402,6 @@
     <t>Gilja barnehage</t>
   </si>
   <si>
-    <t>Kroveien 4</t>
-  </si>
-  <si>
-    <t>4335 DIRDAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">51 61 49 15 </t>
   </si>
   <si>
@@ -480,9 +423,6 @@
     <t>Dirdal barnehage</t>
   </si>
   <si>
-    <t>Kroveien 270</t>
-  </si>
-  <si>
     <t>http://www.gjesdal.kommune.no/handlers/bv.ashx/ibef1171c-6072-41ca-8ad7-a34a5936242c/Dirdal%20barnehage</t>
   </si>
   <si>
@@ -501,9 +441,6 @@
     <t>Øygardsvatnet barnehage</t>
   </si>
   <si>
-    <t>Ånundskaret 96</t>
-  </si>
-  <si>
     <t>http://www.gjesdal.kommune.no/oygardsvatnet/</t>
   </si>
   <si>
@@ -511,13 +448,76 @@
   </si>
   <si>
     <t>Styrer.Oygardsvatnet@gjesdal.kommune.no</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>nummer</t>
+  </si>
+  <si>
+    <t>Åfaret</t>
+  </si>
+  <si>
+    <t>Flassabekkveien</t>
+  </si>
+  <si>
+    <t>Solåsveien</t>
+  </si>
+  <si>
+    <t>Fiskebekkveien</t>
+  </si>
+  <si>
+    <t>Fiolveien</t>
+  </si>
+  <si>
+    <t>Bruhammaren</t>
+  </si>
+  <si>
+    <t>Skogveien</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>Ånundskaret</t>
+  </si>
+  <si>
+    <t>Djupedalsveien</t>
+  </si>
+  <si>
+    <t>Skurvegarden</t>
+  </si>
+  <si>
+    <t>Bygdaveien</t>
+  </si>
+  <si>
+    <t>Kroveien</t>
+  </si>
+  <si>
+    <t>postnummer</t>
+  </si>
+  <si>
+    <t>poststed</t>
+  </si>
+  <si>
+    <t>ÅLGÅRD</t>
+  </si>
+  <si>
+    <t>OLTEDAL</t>
+  </si>
+  <si>
+    <t>DIRDAL</t>
+  </si>
+  <si>
+    <t>Beskrivelse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +652,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -950,7 +958,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -993,11 +1001,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1020,6 +1030,7 @@
     <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperkobling" xfId="42" builtinId="8"/>
     <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -1351,18 +1362,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="12" max="12" width="42.33203125" customWidth="1"/>
+    <col min="13" max="13" width="41.109375" customWidth="1"/>
+    <col min="14" max="14" width="48.77734375" customWidth="1"/>
+    <col min="15" max="15" width="24.21875" customWidth="1"/>
+    <col min="16" max="16" width="36.21875" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" customWidth="1"/>
+    <col min="18" max="18" width="47.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1382,570 +1405,672 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>4330</v>
+      </c>
+      <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4330</v>
+      </c>
+      <c r="K5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>4330</v>
+      </c>
+      <c r="K6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>4330</v>
+      </c>
+      <c r="K7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>4330</v>
+      </c>
+      <c r="K8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>4330</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>4330</v>
+      </c>
+      <c r="K10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11">
+        <v>4330</v>
+      </c>
+      <c r="K11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12">
+        <v>98</v>
+      </c>
+      <c r="J12">
+        <v>4330</v>
+      </c>
+      <c r="K12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>4330</v>
+      </c>
+      <c r="K13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>105</v>
+      </c>
+      <c r="R13" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>40</v>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14">
+        <v>67</v>
+      </c>
+      <c r="J14">
+        <v>4330</v>
+      </c>
+      <c r="K14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>29</v>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15">
+        <v>54</v>
+      </c>
+      <c r="J15">
+        <v>4333</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4335</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" t="s">
-        <v>29</v>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17">
+        <v>270</v>
+      </c>
+      <c r="J17">
+        <v>4335</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18">
         <v>96</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" t="s">
-        <v>99</v>
-      </c>
-      <c r="O11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" t="s">
-        <v>117</v>
-      </c>
-      <c r="N13" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" t="s">
-        <v>119</v>
-      </c>
-      <c r="P13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" t="s">
-        <v>127</v>
-      </c>
-      <c r="M14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" t="s">
-        <v>137</v>
-      </c>
-      <c r="N15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="J18">
+        <v>4330</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="s">
         <v>140</v>
       </c>
-      <c r="E16" t="s">
+      <c r="O18" t="s">
         <v>141</v>
       </c>
-      <c r="F16" t="s">
+      <c r="P18" t="s">
         <v>142</v>
-      </c>
-      <c r="G16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" t="s">
-        <v>146</v>
-      </c>
-      <c r="N16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" t="s">
-        <v>145</v>
-      </c>
-      <c r="M17" t="s">
-        <v>146</v>
-      </c>
-      <c r="N17" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" t="s">
-        <v>154</v>
-      </c>
-      <c r="P17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" t="s">
-        <v>161</v>
-      </c>
-      <c r="M18" t="s">
-        <v>162</v>
-      </c>
-      <c r="N18" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>